--- a/loci_point/Output_excel/OC_OSS Transformer Outage_points.xlsx
+++ b/loci_point/Output_excel/OC_OSS Transformer Outage_points.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,31 +444,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C2">
-        <v>3.998208</v>
+        <v>13.387839</v>
       </c>
       <c r="D2">
-        <v>-0.252897</v>
+        <v>77.388535</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>54.37793888973091</v>
+        <v>84.88263631567753</v>
       </c>
       <c r="H2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>13.26291192432461</v>
+        <v>17.68388256576615</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -479,34 +479,34 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="C3">
-        <v>1.731558</v>
+        <v>415.734419</v>
       </c>
       <c r="D3">
-        <v>10.999937</v>
+        <v>-131.779652</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>70.7355302630646</v>
+      </c>
+      <c r="H3">
         <v>48</v>
       </c>
-      <c r="G3">
-        <v>6.631455962162306</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
       <c r="I3">
+        <v>2.3</v>
+      </c>
+      <c r="J3">
+        <v>20.63119632672717</v>
+      </c>
+      <c r="K3">
         <v>14</v>
-      </c>
-      <c r="J3">
-        <v>18.56807669405446</v>
-      </c>
-      <c r="K3">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,206 +514,206 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.092624</v>
+        <v>34.333114</v>
       </c>
       <c r="D4">
-        <v>20.902458</v>
+        <v>-114.996122</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>63.66197723675813</v>
+      </c>
+      <c r="H4">
         <v>48</v>
       </c>
-      <c r="G4">
-        <v>5.305164769729846</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
       <c r="I4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4">
-        <v>14.85446135524356</v>
+        <v>59.68310365946076</v>
       </c>
       <c r="K4">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3.635769</v>
+        <v>2.13208</v>
       </c>
       <c r="D5">
-        <v>37.370878</v>
+        <v>-5.136776</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>27.14285714285714</v>
-      </c>
       <c r="G5">
-        <v>-16.78164365934951</v>
+        <v>8.841941282883075</v>
       </c>
       <c r="H5">
-        <v>-44.28571428571428</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>18.57142857142857</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>-10.2855235331497</v>
+        <v>8.841941282883075</v>
       </c>
       <c r="K5">
-        <v>-27.14285714285714</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1.861354</v>
+      </c>
+      <c r="D6">
+        <v>11.667389</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>6.631455962162306</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>18.117919</v>
-      </c>
-      <c r="D6">
-        <v>69.81714700000001</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>40</v>
-      </c>
-      <c r="G6">
-        <v>-16.88006972186769</v>
-      </c>
-      <c r="H6">
-        <v>-70</v>
-      </c>
       <c r="I6">
-        <v>28.57142857142857</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>-11.36821022084967</v>
+        <v>18.56807669405446</v>
       </c>
       <c r="K6">
-        <v>-47.14285714285715</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>20.097473</v>
+        <v>2.193898</v>
       </c>
       <c r="D7">
-        <v>62.921286</v>
+        <v>22.678875</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G7">
-        <v>-16.32358390686106</v>
+        <v>5.305164769729846</v>
       </c>
       <c r="H7">
-        <v>-80</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>20.09523809523809</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>-10.10507575186637</v>
+        <v>14.85446135524356</v>
       </c>
       <c r="K7">
-        <v>-49.52380952380952</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>14.123242</v>
+        <v>2.774732</v>
       </c>
       <c r="D8">
-        <v>93.313208</v>
+        <v>32.139888</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>35.47619047619047</v>
+        <v>24.28571428571428</v>
       </c>
       <c r="G8">
-        <v>-12.40843860707121</v>
+        <v>-17.0523153312745</v>
       </c>
       <c r="H8">
-        <v>-79.52380952380952</v>
+        <v>-38.57142857142857</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>15.71428571428572</v>
       </c>
       <c r="J8">
-        <v>-10.92239805532615</v>
+        <v>-9.473508517374725</v>
       </c>
       <c r="K8">
-        <v>-70</v>
+        <v>-21.42857142857143</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>15.283348</v>
+        <v>3.650421</v>
       </c>
       <c r="D9">
-        <v>111.306593</v>
+        <v>41.174166</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>88</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G9">
-        <v>-4.188287976102509</v>
+        <v>-17.86433034704948</v>
       </c>
       <c r="H9">
-        <v>-30</v>
+        <v>-47.14285714285715</v>
       </c>
       <c r="I9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J9">
-        <v>-4.188287976102509</v>
+        <v>-11.36821022084967</v>
       </c>
       <c r="K9">
         <v>-30</v>
@@ -721,351 +721,1506 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>25.705146</v>
+        <v>5.01303</v>
       </c>
       <c r="D10">
-        <v>159.856427</v>
+        <v>50.286166</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>160</v>
+        <v>32.85714285714286</v>
       </c>
       <c r="G10">
-        <v>13.83956026886047</v>
+        <v>-18.47334160888071</v>
       </c>
       <c r="H10">
-        <v>120</v>
+        <v>-55.71428571428572</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="J10">
-        <v>-3.459890067215116</v>
+        <v>-11.8418856467184</v>
       </c>
       <c r="K10">
-        <v>-30</v>
+        <v>-35.71428571428572</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>38.173723</v>
+        <v>7.305292</v>
       </c>
       <c r="D11">
-        <v>187.015086</v>
+        <v>59.788124</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>38.57142857142857</v>
       </c>
       <c r="G11">
-        <v>-21.22065907891938</v>
+        <v>-19.78910668073831</v>
       </c>
       <c r="H11">
-        <v>-200</v>
+        <v>-67.14285714285714</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>27.14285714285714</v>
       </c>
       <c r="J11">
-        <v>-21.22065907891938</v>
+        <v>-13.0523895128274</v>
       </c>
       <c r="K11">
-        <v>-200</v>
+        <v>-44.28571428571428</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>69.68467699999999</v>
+        <v>11.57867</v>
       </c>
       <c r="D12">
-        <v>233.079226</v>
+        <v>69.709073</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>10.47619047619048</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>-20.03592605973505</v>
+        <v>-18.56807669405445</v>
       </c>
       <c r="H12">
-        <v>-219.047619047619</v>
+        <v>-70</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>-18.29367161975809</v>
+        <v>-13.26291192432461</v>
       </c>
       <c r="K12">
-        <v>-200</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>77.898956</v>
+        <v>20.176436</v>
       </c>
       <c r="D13">
-        <v>270.062919</v>
+        <v>78.41439699999999</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>29.42857142857143</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>-22.00298752422516</v>
+        <v>-16.88006972186769</v>
       </c>
       <c r="H13">
-        <v>-257.1428571428571</v>
+        <v>-70</v>
       </c>
       <c r="I13">
-        <v>10.47619047619048</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="J13">
-        <v>-18.7432856687844</v>
+        <v>-12.74617509610417</v>
       </c>
       <c r="K13">
-        <v>-219.047619047619</v>
+        <v>-52.85714285714286</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>141.080318</v>
+        <v>32.723548</v>
       </c>
       <c r="D14">
-        <v>401.214458</v>
+        <v>76.480076</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>124.1904761904762</v>
+        <v>60</v>
       </c>
       <c r="G14">
-        <v>-33.92418288126568</v>
+        <v>-26.52582384864923</v>
       </c>
       <c r="H14">
-        <v>-447.6190476190476</v>
+        <v>-120</v>
       </c>
       <c r="I14">
-        <v>48.38095238095238</v>
+        <v>17.5</v>
       </c>
       <c r="J14">
-        <v>-22.37552487913268</v>
+        <v>-4.736754258687362</v>
       </c>
       <c r="K14">
-        <v>-295.2380952380952</v>
+        <v>-21.42857142857143</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>224.173835</v>
+        <v>21.923865</v>
       </c>
       <c r="D15">
-        <v>495.606496</v>
+        <v>68.766366</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>-34.41187958743684</v>
+        <v>-16.32358390686106</v>
       </c>
       <c r="H15">
-        <v>-480</v>
+        <v>-80</v>
       </c>
       <c r="I15">
-        <v>122.1428571428571</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="J15">
-        <v>-26.90135031240101</v>
+        <v>-10.88238927124071</v>
       </c>
       <c r="K15">
-        <v>-375.2380952380952</v>
+        <v>-53.33333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>681.98271</v>
+        <v>21.423599</v>
       </c>
       <c r="D16">
-        <v>635.474183</v>
+        <v>82.20111900000001</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>920</v>
+        <v>27.61904761904762</v>
       </c>
       <c r="G16">
-        <v>-31.05462304232104</v>
+        <v>-13.71403137753293</v>
       </c>
       <c r="H16">
-        <v>-480</v>
+        <v>-72.38095238095238</v>
       </c>
       <c r="I16">
-        <v>114.5714285714286</v>
+        <v>23.95238095238095</v>
       </c>
       <c r="J16">
-        <v>-22.92126938837982</v>
+        <v>-12.72156858047463</v>
       </c>
       <c r="K16">
-        <v>-354.2857142857143</v>
+        <v>-67.14285714285714</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>1048.145196</v>
+        <v>20.841377</v>
       </c>
       <c r="D17">
-        <v>445.835468</v>
+        <v>87.833473</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>920</v>
+        <v>32.85714285714286</v>
       </c>
       <c r="G17">
-        <v>-29.61022197058518</v>
+        <v>-13.6418522650196</v>
       </c>
       <c r="H17">
-        <v>-480</v>
+        <v>-77.14285714285714</v>
       </c>
       <c r="I17">
-        <v>8.571428571428571</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>-3.760028186740975</v>
+        <v>-12.3787177960363</v>
       </c>
       <c r="K17">
-        <v>-60.95238095238095</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>1078.726396</v>
+        <v>17.686796</v>
       </c>
       <c r="D18">
-        <v>-522.498252</v>
+        <v>89.601788</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>32.85714285714286</v>
       </c>
       <c r="G18">
-        <v>67.72550769867888</v>
+        <v>-12.78923649845588</v>
       </c>
       <c r="H18">
-        <v>1200</v>
+        <v>-77.14285714285714</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J18">
-        <v>30.10022564385728</v>
+        <v>-11.60504793378404</v>
       </c>
       <c r="K18">
-        <v>533.3333333333333</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>12.880584</v>
+      </c>
+      <c r="D19">
+        <v>103.08357</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>45.95238095238095</v>
+      </c>
+      <c r="G19">
+        <v>-13.89447915881626</v>
+      </c>
+      <c r="H19">
+        <v>-89.04761904761905</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>-10.92239805532615</v>
+      </c>
+      <c r="K19">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>16.722172</v>
+      </c>
+      <c r="D20">
+        <v>112.109401</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>88</v>
+      </c>
+      <c r="G20">
+        <v>-4.420970641441538</v>
+      </c>
+      <c r="H20">
+        <v>-30</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>-4.420970641441538</v>
+      </c>
+      <c r="K20">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>12.707972</v>
+      </c>
+      <c r="D21">
+        <v>123.811712</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>88</v>
+      </c>
+      <c r="G21">
+        <v>-4.188287976102509</v>
+      </c>
+      <c r="H21">
+        <v>-30</v>
+      </c>
+      <c r="I21">
+        <v>28</v>
+      </c>
+      <c r="J21">
+        <v>-4.188287976102509</v>
+      </c>
+      <c r="K21">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>112</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>12.867081</v>
+      </c>
+      <c r="D22">
+        <v>137.419626</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>160</v>
+      </c>
+      <c r="G22">
+        <v>9.284038347027227</v>
+      </c>
+      <c r="H22">
+        <v>70</v>
+      </c>
+      <c r="I22">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>-3.978873577297383</v>
+      </c>
+      <c r="K22">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>118</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>14.219138</v>
+      </c>
+      <c r="D23">
+        <v>151.505848</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>160</v>
+      </c>
+      <c r="G23">
+        <v>15.15761362779956</v>
+      </c>
+      <c r="H23">
+        <v>120</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>-3.789403406949889</v>
+      </c>
+      <c r="K23">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>124</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>16.518339</v>
+      </c>
+      <c r="D24">
+        <v>166.426259</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>160</v>
+      </c>
+      <c r="G24">
+        <v>14.46863119017231</v>
+      </c>
+      <c r="H24">
+        <v>120</v>
+      </c>
+      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>-3.617157797543077</v>
+      </c>
+      <c r="K24">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>130</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>19.938696</v>
+      </c>
+      <c r="D25">
+        <v>182.383364</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>160</v>
+      </c>
+      <c r="G25">
+        <v>13.83956026886047</v>
+      </c>
+      <c r="H25">
+        <v>120</v>
+      </c>
+      <c r="I25">
+        <v>28</v>
+      </c>
+      <c r="J25">
+        <v>-3.459890067215116</v>
+      </c>
+      <c r="K25">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>136</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>24.864319</v>
+      </c>
+      <c r="D26">
+        <v>199.401</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>160</v>
+      </c>
+      <c r="G26">
+        <v>13.26291192432461</v>
+      </c>
+      <c r="H26">
+        <v>120</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+      <c r="J26">
+        <v>-3.315727981081154</v>
+      </c>
+      <c r="K26">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>142</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>31.804208</v>
+      </c>
+      <c r="D27">
+        <v>217.144091</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>-21.22065907891938</v>
+      </c>
+      <c r="H27">
+        <v>-200</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>-21.22065907891938</v>
+      </c>
+      <c r="K27">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>148</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>41.03223</v>
+      </c>
+      <c r="D28">
+        <v>234.624434</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="G28">
+        <v>-22.34776368201216</v>
+      </c>
+      <c r="H28">
+        <v>-219.047619047619</v>
+      </c>
+      <c r="I28">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="J28">
+        <v>-22.34776368201216</v>
+      </c>
+      <c r="K28">
+        <v>-219.047619047619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>154</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>51.588058</v>
+      </c>
+      <c r="D29">
+        <v>250.316832</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>19.95238095238095</v>
+      </c>
+      <c r="G29">
+        <v>-23.39137905524623</v>
+      </c>
+      <c r="H29">
+        <v>-238.0952380952381</v>
+      </c>
+      <c r="I29">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="J29">
+        <v>-21.52006873082653</v>
+      </c>
+      <c r="K29">
+        <v>-219.047619047619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>160</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>60.450362</v>
+      </c>
+      <c r="D30">
+        <v>263.975482</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>29.42857142857143</v>
+      </c>
+      <c r="G30">
+        <v>-24.36045047324929</v>
+      </c>
+      <c r="H30">
+        <v>-257.1428571428571</v>
+      </c>
+      <c r="I30">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="J30">
+        <v>-20.75149484758273</v>
+      </c>
+      <c r="K30">
+        <v>-219.047619047619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>166</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>64.900592</v>
+      </c>
+      <c r="D31">
+        <v>278.972507</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>38.90476190476191</v>
+      </c>
+      <c r="G31">
+        <v>-25.26268937966593</v>
+      </c>
+      <c r="H31">
+        <v>-276.1904761904762</v>
+      </c>
+      <c r="I31">
+        <v>19.95238095238095</v>
+      </c>
+      <c r="J31">
+        <v>-21.77818049971201</v>
+      </c>
+      <c r="K31">
+        <v>-238.0952380952381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>172</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>66.156519</v>
+      </c>
+      <c r="D32">
+        <v>299.970098</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>48.38095238095238</v>
+      </c>
+      <c r="G32">
+        <v>-26.10477902565479</v>
+      </c>
+      <c r="H32">
+        <v>-295.2380952380952</v>
+      </c>
+      <c r="I32">
+        <v>29.42857142857143</v>
+      </c>
+      <c r="J32">
+        <v>-22.73642044169933</v>
+      </c>
+      <c r="K32">
+        <v>-257.1428571428571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>178</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>67.71397399999999</v>
+      </c>
+      <c r="D33">
+        <v>329.050136</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>57.85714285714286</v>
+      </c>
+      <c r="G33">
+        <v>-26.89254030738631</v>
+      </c>
+      <c r="H33">
+        <v>-314.2857142857143</v>
+      </c>
+      <c r="I33">
+        <v>38.90476190476191</v>
+      </c>
+      <c r="J33">
+        <v>-23.63283845194555</v>
+      </c>
+      <c r="K33">
+        <v>-276.1904761904762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>184</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>72.17278899999999</v>
+      </c>
+      <c r="D34">
+        <v>366.308685</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>76.80952380952381</v>
+      </c>
+      <c r="G34">
+        <v>-29.20998459523873</v>
+      </c>
+      <c r="H34">
+        <v>-352.3809523809524</v>
+      </c>
+      <c r="I34">
+        <v>48.38095238095238</v>
+      </c>
+      <c r="J34">
+        <v>-24.47323033655137</v>
+      </c>
+      <c r="K34">
+        <v>-295.2380952380952</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>190</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>81.074781</v>
+      </c>
+      <c r="D35">
+        <v>412.300813</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>105.2380952380952</v>
+      </c>
+      <c r="G35">
+        <v>-32.91804979774651</v>
+      </c>
+      <c r="H35">
+        <v>-409.5238095238095</v>
+      </c>
+      <c r="I35">
+        <v>67.33333333333333</v>
+      </c>
+      <c r="J35">
+        <v>-26.79376146328205</v>
+      </c>
+      <c r="K35">
+        <v>-333.3333333333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>196</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>95.96526799999999</v>
+      </c>
+      <c r="D36">
+        <v>468.29335</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>133.6666666666667</v>
+      </c>
+      <c r="G36">
+        <v>-36.40799351775384</v>
+      </c>
+      <c r="H36">
+        <v>-466.6666666666667</v>
+      </c>
+      <c r="I36">
+        <v>86.28571428571429</v>
+      </c>
+      <c r="J36">
+        <v>-28.97779075902857</v>
+      </c>
+      <c r="K36">
+        <v>-371.4285714285714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>202</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>119.530651</v>
+      </c>
+      <c r="D37">
+        <v>537.416365</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>181.047619047619</v>
+      </c>
+      <c r="G37">
+        <v>-42.58567638286542</v>
+      </c>
+      <c r="H37">
+        <v>-561.9047619047619</v>
+      </c>
+      <c r="I37">
+        <v>114.7142857142857</v>
+      </c>
+      <c r="J37">
+        <v>-32.48060063099905</v>
+      </c>
+      <c r="K37">
+        <v>-428.5714285714286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>156.889817</v>
+      </c>
+      <c r="D38">
+        <v>623.700542</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>200</v>
+      </c>
+      <c r="G38">
+        <v>-44.20970641441537</v>
+      </c>
+      <c r="H38">
+        <v>-600</v>
+      </c>
+      <c r="I38">
+        <v>143.1428571428571</v>
+      </c>
+      <c r="J38">
+        <v>-35.78880995452673</v>
+      </c>
+      <c r="K38">
+        <v>-485.7142857142857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>214</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>217.515203</v>
+      </c>
+      <c r="D39">
+        <v>732.877979</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>160</v>
+      </c>
+      <c r="G39">
+        <v>-34.41187958743684</v>
+      </c>
+      <c r="H39">
+        <v>-480</v>
+      </c>
+      <c r="I39">
+        <v>160</v>
+      </c>
+      <c r="J39">
+        <v>-34.41187958743684</v>
+      </c>
+      <c r="K39">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>220</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>320.201897</v>
+      </c>
+      <c r="D40">
+        <v>871.361871</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>160</v>
+      </c>
+      <c r="G40">
+        <v>-33.50630380882007</v>
+      </c>
+      <c r="H40">
+        <v>-480</v>
+      </c>
+      <c r="I40">
+        <v>160</v>
+      </c>
+      <c r="J40">
+        <v>-33.50630380882007</v>
+      </c>
+      <c r="K40">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>226</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>502.601018</v>
+      </c>
+      <c r="D41">
+        <v>1040.58096</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>920</v>
+      </c>
+      <c r="G41">
+        <v>-32.64716781372212</v>
+      </c>
+      <c r="H41">
+        <v>-480</v>
+      </c>
+      <c r="I41">
+        <v>160</v>
+      </c>
+      <c r="J41">
+        <v>-32.64716781372212</v>
+      </c>
+      <c r="K41">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>232</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>837.069617</v>
+      </c>
+      <c r="D42">
+        <v>1211.258068</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>920</v>
+      </c>
+      <c r="G42">
+        <v>-31.83098861837907</v>
+      </c>
+      <c r="H42">
+        <v>-480</v>
+      </c>
+      <c r="I42">
+        <v>160</v>
+      </c>
+      <c r="J42">
+        <v>-31.83098861837907</v>
+      </c>
+      <c r="K42">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>238</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>1411.088106</v>
+      </c>
+      <c r="D43">
+        <v>1240.849701</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>920</v>
+      </c>
+      <c r="G43">
+        <v>-31.05462304232104</v>
+      </c>
+      <c r="H43">
+        <v>-480</v>
+      </c>
+      <c r="I43">
+        <v>160</v>
+      </c>
+      <c r="J43">
+        <v>-31.05462304232104</v>
+      </c>
+      <c r="K43">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>244</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>2106.073262</v>
+      </c>
+      <c r="D44">
+        <v>809.528411</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>920</v>
+      </c>
+      <c r="G44">
+        <v>-30.31522725559912</v>
+      </c>
+      <c r="H44">
+        <v>-480</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>-2.526268937966593</v>
+      </c>
+      <c r="K44">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>250</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>2360.720275</v>
+      </c>
+      <c r="D45">
+        <v>-103.798752</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>1040</v>
+      </c>
+      <c r="G45">
+        <v>27.14270347303642</v>
+      </c>
+      <c r="H45">
+        <v>440</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>6.580049326796709</v>
+      </c>
+      <c r="K45">
+        <v>106.6666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>256</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>1986.178054</v>
+      </c>
+      <c r="D46">
+        <v>-878.428791</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>1040</v>
+      </c>
+      <c r="G46">
+        <v>26.52582384864923</v>
+      </c>
+      <c r="H46">
+        <v>440</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>24.11438531695384</v>
+      </c>
+      <c r="K46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>262</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>1406.088425</v>
+      </c>
+      <c r="D47">
+        <v>-1210.544046</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>1400</v>
+      </c>
+      <c r="G47">
+        <v>153.2603155699733</v>
+      </c>
+      <c r="H47">
+        <v>2600</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>70.7355302630646</v>
+      </c>
+      <c r="K47">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>268</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>920.475229</v>
+      </c>
+      <c r="D48">
+        <v>-1235.118765</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>69.19780134430232</v>
+      </c>
+      <c r="H48">
+        <v>1200</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>69.19780134430232</v>
+      </c>
+      <c r="K48">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>274</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>592.949853</v>
+      </c>
+      <c r="D49">
+        <v>-1126.555106</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>67.72550769867888</v>
+      </c>
+      <c r="H49">
+        <v>1200</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>62.35046740513294</v>
+      </c>
+      <c r="K49">
+        <v>1104.761904761905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>280</v>
+      </c>
+      <c r="B50">
         <v>48</v>
       </c>
-      <c r="B19">
+      <c r="C50">
+        <v>392.66029</v>
+      </c>
+      <c r="D50">
+        <v>-989.301069</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>61.05149933419267</v>
+      </c>
+      <c r="H50">
+        <v>1104.761904761905</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>55.78843904676226</v>
+      </c>
+      <c r="K50">
+        <v>1009.52380952381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>286</v>
+      </c>
+      <c r="B51">
         <v>49</v>
       </c>
-      <c r="C19">
-        <v>680.72768</v>
-      </c>
-      <c r="D19">
-        <v>-697.458588</v>
-      </c>
-      <c r="E19">
+      <c r="C51">
+        <v>272.518011</v>
+      </c>
+      <c r="D51">
+        <v>-864.486481</v>
+      </c>
+      <c r="E51">
         <v>9</v>
       </c>
-      <c r="F19">
+      <c r="F51">
         <v>3</v>
       </c>
-      <c r="G19">
-        <v>64.9612012619981</v>
-      </c>
-      <c r="H19">
-        <v>1200</v>
-      </c>
-      <c r="I19">
+      <c r="G51">
+        <v>49.49424858056998</v>
+      </c>
+      <c r="H51">
+        <v>914.2857142857142</v>
+      </c>
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="J19">
-        <v>39.18294679295123</v>
-      </c>
-      <c r="K19">
+      <c r="J51">
+        <v>44.33859768676061</v>
+      </c>
+      <c r="K51">
+        <v>819.047619047619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>292</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>198.73483</v>
+      </c>
+      <c r="D52">
+        <v>-761.191293</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>43.45182573302539</v>
+      </c>
+      <c r="H52">
+        <v>819.047619047619</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>38.39928785709221</v>
+      </c>
+      <c r="K52">
         <v>723.8095238095239</v>
       </c>
     </row>
